--- a/datasets/usa_cities/largest_cities_blank_rc.xlsx
+++ b/datasets/usa_cities/largest_cities_blank_rc.xlsx
@@ -1,3598 +1,3580 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1178">
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023 Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 Census</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area mi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Density mi2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,992,908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,804,190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29,938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">California</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,930,586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,898,747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,761,625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,746,388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Houston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,366,119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,304,580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arizona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,656,892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,608,139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">517.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philadelphia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pennsylvania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,627,134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,603,797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Antonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,466,791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,434,625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,410,791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,386,932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,336,347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,304,379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,033,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,013,240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,013,293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">961,855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacksonville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">987,960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">949,611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">747.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Worth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">972,228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">918,915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">345.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">941,364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">905,748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">917,527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">874,579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indianapolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">907,802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">887,642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Francisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">894,584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">873,965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">775,523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737,015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750,130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715,522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nashville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tennessee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715,913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">689,447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">475.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District of Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">715,891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">689,545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklahoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">711,372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">681,054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massachusetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">693,062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675,647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Paso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">687,722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">678,815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oregon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">673,122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">652,503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nevada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659,348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">641,903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Memphis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">628,970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">633,104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detroit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">616,710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">639,111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltimore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maryland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">575,133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">585,708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571,939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">577,222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albuquerque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">570,172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">564,559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">556,339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542,107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tucson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">549,382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542,629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542,481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">524,943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">523,824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">504,258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missouri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">522,580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">508,090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlanta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">522,328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">498,715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omaha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebraska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">509,178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486,051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colorado Springs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497,720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">478,961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raleigh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486,796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">467,665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468,086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">466,742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virginia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">465,914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">459,470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455,622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440,646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455,075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442,241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minneapolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minnesota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444,168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429,954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420,246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403,455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tulsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419,414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">413,066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404,615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386,261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arlington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402,915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">394,266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402,080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">397,532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tampa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399,734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384,959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Orleans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396,048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">383,997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleveland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365,367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">372,624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honolulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawaii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">355,077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">350,964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaheim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">349,992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">346,824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irvine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336,260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307,670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">335,574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317,610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kentucky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330,601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322,570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">329,534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320,804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orlando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328,354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307,573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louisville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323,749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">386,884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Jersey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321,872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311,549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13,331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpus Christi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">321,658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317,863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">319,465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311,527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.83%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318,337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">314,998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cincinnati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313,028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309,317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greensboro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307,846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">299,035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305,937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310,227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305,904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">292,449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">305,130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">322,854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pittsburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302,152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302,971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300,892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291,082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300,060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283,506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296,262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301,578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293,189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285,494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anchorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291,073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291,247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,706.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287,945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275,987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285,756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267,918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chula Vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284,958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275,487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283,461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">278,349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280,829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">269,840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">276,198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262,527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275,847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264,165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">268,801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256,684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">266,946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263,886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265,969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270,871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lubbock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265,412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257,141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Petersburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262,370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258,308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laredo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260,938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255,205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chesapeake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257,585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249,422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enterprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255,836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221,831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winston-Salem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255,524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249,545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glendale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254,805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248,325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251,760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246,018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scottsdale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248,555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241,361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247,949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238,643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idaho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244,687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235,684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Clarita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244,378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228,673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norfolk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238,005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremont</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235,430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230,504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spokane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235,010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228,989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richmond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233,330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226,610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baton Rouge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226,864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227,470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226,757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215,597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Bernardino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225,755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222,101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225,631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219,346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntsville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alabama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225,476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215,006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223,654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218,464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hialeah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222,641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223,109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Des Moines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217,343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214,133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port St. Lucie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216,926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yonkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216,246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211,569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McKinney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214,565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195,308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worcester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214,159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206,518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moreno Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213,215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208,634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fontana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212,089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208,393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212,034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206,922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rochester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211,556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211,328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fayetteville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210,883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208,501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunrise Manor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210,493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Coral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194,016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Rock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205,312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overland Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197,238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sioux Falls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Dakota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204,106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192,517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203,953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salt Lake City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203,707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199,723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,840</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxnard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203,311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amarillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203,303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Prairie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196,100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Rapids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198,917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202,061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntington Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201,327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198,711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tallahassee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196,169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vancouver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199,651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montgomery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199,055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.26%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197,989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196,543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197,283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200,733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhode Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194,801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10,584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knoxville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194,301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brownsville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Lauderdale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187,932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182,760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newport News</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187,906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187,877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190,469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186,248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180,587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chattanooga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185,125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181,099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184,620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187,041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreveport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184,077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187,593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elk Grove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183,057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182,795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181,805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181,659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191,238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.73%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Rosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181,220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178,127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178,667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175,265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lancaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178,580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173,516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Collins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177,556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169,810</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rancho Cucamonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177,207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarksville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166,722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceanside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pembroke Pines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176,107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171,178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175,334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180,542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmdale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174,460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169,450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garden Grove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172,270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171,949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172,080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169,176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168,585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162,954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167,472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murfreesboro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165,972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165,317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11,070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paterson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163,791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19,469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellevue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160,701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Killeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160,646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunnyvale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160,521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155,805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155,984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156,607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charleston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Carolina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayamon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159,179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165,368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.28%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158,564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157,136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156,790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155,929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156,757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roseville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156,467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesquite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escondido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasadena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pomona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152,511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naperville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149,540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joliet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savannah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143,148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgeport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connecticut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149,980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148,654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149,842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136,588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149,655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148,620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thornton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148,797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139,869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jackson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153,701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torrance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147,389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148,655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146,466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fullerton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146,155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143,617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gainesville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146,104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,317</t>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>2023 Population</t>
+  </si>
+  <si>
+    <t>2020 Census</t>
+  </si>
+  <si>
+    <t>Annual Change</t>
+  </si>
+  <si>
+    <t>Area mi2</t>
+  </si>
+  <si>
+    <t>Density mi2</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>8,992,908</t>
+  </si>
+  <si>
+    <t>8,804,190</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>300.38</t>
+  </si>
+  <si>
+    <t>29,938</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>3,930,586</t>
+  </si>
+  <si>
+    <t>3,898,747</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
+    <t>468.96</t>
+  </si>
+  <si>
+    <t>8,382</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>2,761,625</t>
+  </si>
+  <si>
+    <t>2,746,388</t>
+  </si>
+  <si>
+    <t>0.18%</t>
+  </si>
+  <si>
+    <t>227.37</t>
+  </si>
+  <si>
+    <t>12,146</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>2,366,119</t>
+  </si>
+  <si>
+    <t>2,304,580</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>640.19</t>
+  </si>
+  <si>
+    <t>3,696</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>1,656,892</t>
+  </si>
+  <si>
+    <t>1,608,139</t>
+  </si>
+  <si>
+    <t>0.99%</t>
+  </si>
+  <si>
+    <t>517.67</t>
+  </si>
+  <si>
+    <t>3,201</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>1,627,134</t>
+  </si>
+  <si>
+    <t>1,603,797</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>134.28</t>
+  </si>
+  <si>
+    <t>12,118</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>1,466,791</t>
+  </si>
+  <si>
+    <t>1,434,625</t>
+  </si>
+  <si>
+    <t>0.74%</t>
+  </si>
+  <si>
+    <t>485.11</t>
+  </si>
+  <si>
+    <t>3,024</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>1,410,791</t>
+  </si>
+  <si>
+    <t>1,386,932</t>
+  </si>
+  <si>
+    <t>0.57%</t>
+  </si>
+  <si>
+    <t>325.88</t>
+  </si>
+  <si>
+    <t>4,329</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>1,336,347</t>
+  </si>
+  <si>
+    <t>1,304,379</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>339.74</t>
+  </si>
+  <si>
+    <t>3,933</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>1,033,430</t>
+  </si>
+  <si>
+    <t>1,013,240</t>
+  </si>
+  <si>
+    <t>0.66%</t>
+  </si>
+  <si>
+    <t>177.81</t>
+  </si>
+  <si>
+    <t>5,812</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>1,013,293</t>
+  </si>
+  <si>
+    <t>961,855</t>
+  </si>
+  <si>
+    <t>1.72%</t>
+  </si>
+  <si>
+    <t>319.94</t>
+  </si>
+  <si>
+    <t>3,167</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>987,960</t>
+  </si>
+  <si>
+    <t>949,611</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>747.47</t>
+  </si>
+  <si>
+    <t>1,322</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>972,228</t>
+  </si>
+  <si>
+    <t>918,915</t>
+  </si>
+  <si>
+    <t>1.86%</t>
+  </si>
+  <si>
+    <t>345.58</t>
+  </si>
+  <si>
+    <t>2,813</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>941,364</t>
+  </si>
+  <si>
+    <t>905,748</t>
+  </si>
+  <si>
+    <t>1.28%</t>
+  </si>
+  <si>
+    <t>219.20</t>
+  </si>
+  <si>
+    <t>4,295</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>917,527</t>
+  </si>
+  <si>
+    <t>874,579</t>
+  </si>
+  <si>
+    <t>1.58%</t>
+  </si>
+  <si>
+    <t>307.24</t>
+  </si>
+  <si>
+    <t>2,986</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>907,802</t>
+  </si>
+  <si>
+    <t>887,642</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>361.57</t>
+  </si>
+  <si>
+    <t>2,511</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>894,584</t>
+  </si>
+  <si>
+    <t>873,965</t>
+  </si>
+  <si>
+    <t>0.77%</t>
+  </si>
+  <si>
+    <t>46.90</t>
+  </si>
+  <si>
+    <t>19,073</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>775,523</t>
+  </si>
+  <si>
+    <t>737,015</t>
+  </si>
+  <si>
+    <t>1.68%</t>
+  </si>
+  <si>
+    <t>83.86</t>
+  </si>
+  <si>
+    <t>9,248</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>750,130</t>
+  </si>
+  <si>
+    <t>715,522</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>153.29</t>
+  </si>
+  <si>
+    <t>4,893</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>715,913</t>
+  </si>
+  <si>
+    <t>689,447</t>
+  </si>
+  <si>
+    <t>1.25%</t>
+  </si>
+  <si>
+    <t>475.54</t>
+  </si>
+  <si>
+    <t>1,505</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>715,891</t>
+  </si>
+  <si>
+    <t>689,545</t>
+  </si>
+  <si>
+    <t>1.24%</t>
+  </si>
+  <si>
+    <t>61.14</t>
+  </si>
+  <si>
+    <t>11,710</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>711,372</t>
+  </si>
+  <si>
+    <t>681,054</t>
+  </si>
+  <si>
+    <t>1.44%</t>
+  </si>
+  <si>
+    <t>606.45</t>
+  </si>
+  <si>
+    <t>1,173</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>693,062</t>
+  </si>
+  <si>
+    <t>675,647</t>
+  </si>
+  <si>
+    <t>0.84%</t>
+  </si>
+  <si>
+    <t>48.34</t>
+  </si>
+  <si>
+    <t>14,338</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>687,722</t>
+  </si>
+  <si>
+    <t>678,815</t>
+  </si>
+  <si>
+    <t>0.43%</t>
+  </si>
+  <si>
+    <t>257.42</t>
+  </si>
+  <si>
+    <t>2,672</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>673,122</t>
+  </si>
+  <si>
+    <t>652,503</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
+    <t>133.42</t>
+  </si>
+  <si>
+    <t>5,045</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>659,348</t>
+  </si>
+  <si>
+    <t>641,903</t>
+  </si>
+  <si>
+    <t>0.89%</t>
+  </si>
+  <si>
+    <t>141.77</t>
+  </si>
+  <si>
+    <t>4,651</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>628,970</t>
+  </si>
+  <si>
+    <t>633,104</t>
+  </si>
+  <si>
+    <t>-0.22%</t>
+  </si>
+  <si>
+    <t>317.36</t>
+  </si>
+  <si>
+    <t>1,982</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>616,710</t>
+  </si>
+  <si>
+    <t>639,111</t>
+  </si>
+  <si>
+    <t>-1.2%</t>
+  </si>
+  <si>
+    <t>138.72</t>
+  </si>
+  <si>
+    <t>4,446</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>575,133</t>
+  </si>
+  <si>
+    <t>585,708</t>
+  </si>
+  <si>
+    <t>-0.61%</t>
+  </si>
+  <si>
+    <t>80.95</t>
+  </si>
+  <si>
+    <t>7,105</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>571,939</t>
+  </si>
+  <si>
+    <t>577,222</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>96.18</t>
+  </si>
+  <si>
+    <t>5,946</t>
+  </si>
+  <si>
+    <t>Albuquerque</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>570,172</t>
+  </si>
+  <si>
+    <t>564,559</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
+    <t>187.22</t>
+  </si>
+  <si>
+    <t>3,046</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>556,339</t>
+  </si>
+  <si>
+    <t>542,107</t>
+  </si>
+  <si>
+    <t>0.86%</t>
+  </si>
+  <si>
+    <t>114.72</t>
+  </si>
+  <si>
+    <t>4,849</t>
+  </si>
+  <si>
+    <t>Tucson</t>
+  </si>
+  <si>
+    <t>549,382</t>
+  </si>
+  <si>
+    <t>542,629</t>
+  </si>
+  <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>238.01</t>
+  </si>
+  <si>
+    <t>2,308</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>542,481</t>
+  </si>
+  <si>
+    <t>524,943</t>
+  </si>
+  <si>
+    <t>1.09%</t>
+  </si>
+  <si>
+    <t>97.73</t>
+  </si>
+  <si>
+    <t>5,551</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>523,824</t>
+  </si>
+  <si>
+    <t>504,258</t>
+  </si>
+  <si>
+    <t>1.26%</t>
+  </si>
+  <si>
+    <t>138.09</t>
+  </si>
+  <si>
+    <t>3,793</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>522,580</t>
+  </si>
+  <si>
+    <t>508,090</t>
+  </si>
+  <si>
+    <t>0.93%</t>
+  </si>
+  <si>
+    <t>314.89</t>
+  </si>
+  <si>
+    <t>1,660</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>522,328</t>
+  </si>
+  <si>
+    <t>498,715</t>
+  </si>
+  <si>
+    <t>1.53%</t>
+  </si>
+  <si>
+    <t>135.74</t>
+  </si>
+  <si>
+    <t>3,848</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>509,178</t>
+  </si>
+  <si>
+    <t>486,051</t>
+  </si>
+  <si>
+    <t>1.54%</t>
+  </si>
+  <si>
+    <t>140.98</t>
+  </si>
+  <si>
+    <t>3,612</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>497,720</t>
+  </si>
+  <si>
+    <t>478,961</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>2,552</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>486,796</t>
+  </si>
+  <si>
+    <t>467,665</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>145.89</t>
+  </si>
+  <si>
+    <t>3,337</t>
+  </si>
+  <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>468,086</t>
+  </si>
+  <si>
+    <t>466,742</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>50.70</t>
+  </si>
+  <si>
+    <t>9,233</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>465,914</t>
+  </si>
+  <si>
+    <t>459,470</t>
+  </si>
+  <si>
+    <t>0.46%</t>
+  </si>
+  <si>
+    <t>244.72</t>
+  </si>
+  <si>
+    <t>1,904</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>455,622</t>
+  </si>
+  <si>
+    <t>440,646</t>
+  </si>
+  <si>
+    <t>1.11%</t>
+  </si>
+  <si>
+    <t>55.89</t>
+  </si>
+  <si>
+    <t>8,152</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>455,075</t>
+  </si>
+  <si>
+    <t>442,241</t>
+  </si>
+  <si>
+    <t>0.95%</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>12,642</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>444,168</t>
+  </si>
+  <si>
+    <t>429,954</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>8,225</t>
+  </si>
+  <si>
+    <t>Bakersfield</t>
+  </si>
+  <si>
+    <t>420,246</t>
+  </si>
+  <si>
+    <t>403,455</t>
+  </si>
+  <si>
+    <t>1.35%</t>
+  </si>
+  <si>
+    <t>149.76</t>
+  </si>
+  <si>
+    <t>2,806</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>419,414</t>
+  </si>
+  <si>
+    <t>413,066</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
+    <t>197.48</t>
+  </si>
+  <si>
+    <t>2,124</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>404,615</t>
+  </si>
+  <si>
+    <t>386,261</t>
+  </si>
+  <si>
+    <t>154.27</t>
+  </si>
+  <si>
+    <t>2,623</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>402,915</t>
+  </si>
+  <si>
+    <t>394,266</t>
+  </si>
+  <si>
+    <t>0.72%</t>
+  </si>
+  <si>
+    <t>95.78</t>
+  </si>
+  <si>
+    <t>4,207</t>
+  </si>
+  <si>
+    <t>Wichita</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>402,080</t>
+  </si>
+  <si>
+    <t>397,532</t>
+  </si>
+  <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>161.66</t>
+  </si>
+  <si>
+    <t>2,487</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>399,734</t>
+  </si>
+  <si>
+    <t>384,959</t>
+  </si>
+  <si>
+    <t>114.02</t>
+  </si>
+  <si>
+    <t>3,506</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>396,048</t>
+  </si>
+  <si>
+    <t>383,997</t>
+  </si>
+  <si>
+    <t>169.43</t>
+  </si>
+  <si>
+    <t>2,337</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>365,367</t>
+  </si>
+  <si>
+    <t>372,624</t>
+  </si>
+  <si>
+    <t>-0.66%</t>
+  </si>
+  <si>
+    <t>77.69</t>
+  </si>
+  <si>
+    <t>4,703</t>
+  </si>
+  <si>
+    <t>Honolulu</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>355,077</t>
+  </si>
+  <si>
+    <t>350,964</t>
+  </si>
+  <si>
+    <t>0.39%</t>
+  </si>
+  <si>
+    <t>60.54</t>
+  </si>
+  <si>
+    <t>5,865</t>
+  </si>
+  <si>
+    <t>Anaheim</t>
+  </si>
+  <si>
+    <t>349,992</t>
+  </si>
+  <si>
+    <t>346,824</t>
+  </si>
+  <si>
+    <t>0.3%</t>
+  </si>
+  <si>
+    <t>50.32</t>
+  </si>
+  <si>
+    <t>6,955</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>336,260</t>
+  </si>
+  <si>
+    <t>307,670</t>
+  </si>
+  <si>
+    <t>2.92%</t>
+  </si>
+  <si>
+    <t>65.62</t>
+  </si>
+  <si>
+    <t>5,124</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>335,574</t>
+  </si>
+  <si>
+    <t>317,610</t>
+  </si>
+  <si>
+    <t>1.82%</t>
+  </si>
+  <si>
+    <t>106.08</t>
+  </si>
+  <si>
+    <t>3,163</t>
+  </si>
+  <si>
+    <t>Lexington</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>330,601</t>
+  </si>
+  <si>
+    <t>322,570</t>
+  </si>
+  <si>
+    <t>0.82%</t>
+  </si>
+  <si>
+    <t>283.64</t>
+  </si>
+  <si>
+    <t>1,166</t>
+  </si>
+  <si>
+    <t>Stockton</t>
+  </si>
+  <si>
+    <t>329,534</t>
+  </si>
+  <si>
+    <t>320,804</t>
+  </si>
+  <si>
+    <t>62.17</t>
+  </si>
+  <si>
+    <t>5,300</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>328,354</t>
+  </si>
+  <si>
+    <t>307,573</t>
+  </si>
+  <si>
+    <t>2.15%</t>
+  </si>
+  <si>
+    <t>110.56</t>
+  </si>
+  <si>
+    <t>2,970</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>323,749</t>
+  </si>
+  <si>
+    <t>386,884</t>
+  </si>
+  <si>
+    <t>-6.1%</t>
+  </si>
+  <si>
+    <t>263.43</t>
+  </si>
+  <si>
+    <t>1,229</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>321,872</t>
+  </si>
+  <si>
+    <t>311,549</t>
+  </si>
+  <si>
+    <t>24.14</t>
+  </si>
+  <si>
+    <t>13,331</t>
+  </si>
+  <si>
+    <t>Corpus Christi</t>
+  </si>
+  <si>
+    <t>321,658</t>
+  </si>
+  <si>
+    <t>317,863</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>159.70</t>
+  </si>
+  <si>
+    <t>2,014</t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t>319,465</t>
+  </si>
+  <si>
+    <t>311,527</t>
+  </si>
+  <si>
+    <t>0.83%</t>
+  </si>
+  <si>
+    <t>51.98</t>
+  </si>
+  <si>
+    <t>6,146</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>318,337</t>
+  </si>
+  <si>
+    <t>314,998</t>
+  </si>
+  <si>
+    <t>0.35%</t>
+  </si>
+  <si>
+    <t>81.26</t>
+  </si>
+  <si>
+    <t>3,918</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>313,028</t>
+  </si>
+  <si>
+    <t>309,317</t>
+  </si>
+  <si>
+    <t>77.84</t>
+  </si>
+  <si>
+    <t>4,022</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>307,846</t>
+  </si>
+  <si>
+    <t>299,035</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
+    <t>129.07</t>
+  </si>
+  <si>
+    <t>2,385</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>305,937</t>
+  </si>
+  <si>
+    <t>310,227</t>
+  </si>
+  <si>
+    <t>-0.46%</t>
+  </si>
+  <si>
+    <t>27.36</t>
+  </si>
+  <si>
+    <t>11,181</t>
+  </si>
+  <si>
+    <t>Jersey City</t>
+  </si>
+  <si>
+    <t>305,904</t>
+  </si>
+  <si>
+    <t>292,449</t>
+  </si>
+  <si>
+    <t>1.49%</t>
+  </si>
+  <si>
+    <t>14.74</t>
+  </si>
+  <si>
+    <t>20,748</t>
+  </si>
+  <si>
+    <t>San Juan</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>305,130</t>
+  </si>
+  <si>
+    <t>322,854</t>
+  </si>
+  <si>
+    <t>-1.9%</t>
+  </si>
+  <si>
+    <t>39.53</t>
+  </si>
+  <si>
+    <t>7,718</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>302,152</t>
+  </si>
+  <si>
+    <t>302,971</t>
+  </si>
+  <si>
+    <t>-0.09%</t>
+  </si>
+  <si>
+    <t>55.38</t>
+  </si>
+  <si>
+    <t>5,456</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>300,892</t>
+  </si>
+  <si>
+    <t>291,082</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <t>96.22</t>
+  </si>
+  <si>
+    <t>3,127</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>300,060</t>
+  </si>
+  <si>
+    <t>283,506</t>
+  </si>
+  <si>
+    <t>1.87%</t>
+  </si>
+  <si>
+    <t>112.22</t>
+  </si>
+  <si>
+    <t>2,674</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>296,262</t>
+  </si>
+  <si>
+    <t>301,578</t>
+  </si>
+  <si>
+    <t>-0.6%</t>
+  </si>
+  <si>
+    <t>61.74</t>
+  </si>
+  <si>
+    <t>4,798</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>293,189</t>
+  </si>
+  <si>
+    <t>285,494</t>
+  </si>
+  <si>
+    <t>71.68</t>
+  </si>
+  <si>
+    <t>4,090</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>291,073</t>
+  </si>
+  <si>
+    <t>291,247</t>
+  </si>
+  <si>
+    <t>-0.02%</t>
+  </si>
+  <si>
+    <t>1,706.80</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>287,945</t>
+  </si>
+  <si>
+    <t>275,987</t>
+  </si>
+  <si>
+    <t>1.4%</t>
+  </si>
+  <si>
+    <t>65.12</t>
+  </si>
+  <si>
+    <t>4,421</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>285,756</t>
+  </si>
+  <si>
+    <t>267,918</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>68.47</t>
+  </si>
+  <si>
+    <t>4,173</t>
+  </si>
+  <si>
+    <t>Chula Vista</t>
+  </si>
+  <si>
+    <t>284,958</t>
+  </si>
+  <si>
+    <t>275,487</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>49.64</t>
+  </si>
+  <si>
+    <t>5,740</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>283,461</t>
+  </si>
+  <si>
+    <t>278,349</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>40.38</t>
+  </si>
+  <si>
+    <t>7,020</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>280,829</t>
+  </si>
+  <si>
+    <t>269,840</t>
+  </si>
+  <si>
+    <t>1.32%</t>
+  </si>
+  <si>
+    <t>79.34</t>
+  </si>
+  <si>
+    <t>3,540</t>
+  </si>
+  <si>
+    <t>North Las Vegas</t>
+  </si>
+  <si>
+    <t>276,198</t>
+  </si>
+  <si>
+    <t>262,527</t>
+  </si>
+  <si>
+    <t>98.02</t>
+  </si>
+  <si>
+    <t>2,818</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>275,847</t>
+  </si>
+  <si>
+    <t>264,165</t>
+  </si>
+  <si>
+    <t>1.43%</t>
+  </si>
+  <si>
+    <t>108.74</t>
+  </si>
+  <si>
+    <t>2,537</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>268,801</t>
+  </si>
+  <si>
+    <t>256,684</t>
+  </si>
+  <si>
+    <t>67.06</t>
+  </si>
+  <si>
+    <t>4,008</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
+    <t>266,946</t>
+  </si>
+  <si>
+    <t>263,886</t>
+  </si>
+  <si>
+    <t>110.64</t>
+  </si>
+  <si>
+    <t>2,413</t>
+  </si>
+  <si>
+    <t>Toledo</t>
+  </si>
+  <si>
+    <t>265,969</t>
+  </si>
+  <si>
+    <t>270,871</t>
+  </si>
+  <si>
+    <t>80.49</t>
+  </si>
+  <si>
+    <t>3,304</t>
+  </si>
+  <si>
+    <t>Lubbock</t>
+  </si>
+  <si>
+    <t>265,412</t>
+  </si>
+  <si>
+    <t>257,141</t>
+  </si>
+  <si>
+    <t>1.05%</t>
+  </si>
+  <si>
+    <t>134.72</t>
+  </si>
+  <si>
+    <t>1,970</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>262,370</t>
+  </si>
+  <si>
+    <t>258,308</t>
+  </si>
+  <si>
+    <t>0.52%</t>
+  </si>
+  <si>
+    <t>61.86</t>
+  </si>
+  <si>
+    <t>4,241</t>
+  </si>
+  <si>
+    <t>Laredo</t>
+  </si>
+  <si>
+    <t>260,938</t>
+  </si>
+  <si>
+    <t>255,205</t>
+  </si>
+  <si>
+    <t>105.74</t>
+  </si>
+  <si>
+    <t>2,468</t>
+  </si>
+  <si>
+    <t>Chesapeake</t>
+  </si>
+  <si>
+    <t>257,585</t>
+  </si>
+  <si>
+    <t>249,422</t>
+  </si>
+  <si>
+    <t>1.07%</t>
+  </si>
+  <si>
+    <t>338.51</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>255,836</t>
+  </si>
+  <si>
+    <t>221,831</t>
+  </si>
+  <si>
+    <t>4.64%</t>
+  </si>
+  <si>
+    <t>51.13</t>
+  </si>
+  <si>
+    <t>5,004</t>
+  </si>
+  <si>
+    <t>Winston-Salem</t>
+  </si>
+  <si>
+    <t>255,524</t>
+  </si>
+  <si>
+    <t>249,545</t>
+  </si>
+  <si>
+    <t>0.79%</t>
+  </si>
+  <si>
+    <t>132.61</t>
+  </si>
+  <si>
+    <t>1,927</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>254,805</t>
+  </si>
+  <si>
+    <t>248,325</t>
+  </si>
+  <si>
+    <t>0.85%</t>
+  </si>
+  <si>
+    <t>61.59</t>
+  </si>
+  <si>
+    <t>4,137</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>251,760</t>
+  </si>
+  <si>
+    <t>246,018</t>
+  </si>
+  <si>
+    <t>57.06</t>
+  </si>
+  <si>
+    <t>4,412</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>248,555</t>
+  </si>
+  <si>
+    <t>241,361</t>
+  </si>
+  <si>
+    <t>0.97%</t>
+  </si>
+  <si>
+    <t>183.99</t>
+  </si>
+  <si>
+    <t>1,351</t>
+  </si>
+  <si>
+    <t>247,949</t>
+  </si>
+  <si>
+    <t>238,643</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>9,538</t>
+  </si>
+  <si>
+    <t>Boise</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>244,687</t>
+  </si>
+  <si>
+    <t>235,684</t>
+  </si>
+  <si>
+    <t>83.67</t>
+  </si>
+  <si>
+    <t>2,924</t>
+  </si>
+  <si>
+    <t>Santa Clarita</t>
+  </si>
+  <si>
+    <t>244,378</t>
+  </si>
+  <si>
+    <t>228,673</t>
+  </si>
+  <si>
+    <t>2.19%</t>
+  </si>
+  <si>
+    <t>70.75</t>
+  </si>
+  <si>
+    <t>3,454</t>
+  </si>
+  <si>
+    <t>Norfolk</t>
+  </si>
+  <si>
+    <t>236,565</t>
+  </si>
+  <si>
+    <t>238,005</t>
+  </si>
+  <si>
+    <t>-0.2%</t>
+  </si>
+  <si>
+    <t>53.27</t>
+  </si>
+  <si>
+    <t>4,440</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>235,430</t>
+  </si>
+  <si>
+    <t>230,504</t>
+  </si>
+  <si>
+    <t>77.47</t>
+  </si>
+  <si>
+    <t>3,039</t>
+  </si>
+  <si>
+    <t>Spokane</t>
+  </si>
+  <si>
+    <t>235,010</t>
+  </si>
+  <si>
+    <t>228,989</t>
+  </si>
+  <si>
+    <t>68.76</t>
+  </si>
+  <si>
+    <t>3,418</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>233,330</t>
+  </si>
+  <si>
+    <t>226,610</t>
+  </si>
+  <si>
+    <t>59.92</t>
+  </si>
+  <si>
+    <t>3,894</t>
+  </si>
+  <si>
+    <t>Baton Rouge</t>
+  </si>
+  <si>
+    <t>226,864</t>
+  </si>
+  <si>
+    <t>227,470</t>
+  </si>
+  <si>
+    <t>86.45</t>
+  </si>
+  <si>
+    <t>2,624</t>
+  </si>
+  <si>
+    <t>Spring Valley</t>
+  </si>
+  <si>
+    <t>226,757</t>
+  </si>
+  <si>
+    <t>215,597</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>33.25</t>
+  </si>
+  <si>
+    <t>6,819</t>
+  </si>
+  <si>
+    <t>San Bernardino</t>
+  </si>
+  <si>
+    <t>225,755</t>
+  </si>
+  <si>
+    <t>222,101</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
+    <t>62.11</t>
+  </si>
+  <si>
+    <t>3,635</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>225,631</t>
+  </si>
+  <si>
+    <t>219,346</t>
+  </si>
+  <si>
+    <t>0.94%</t>
+  </si>
+  <si>
+    <t>49.76</t>
+  </si>
+  <si>
+    <t>4,534</t>
+  </si>
+  <si>
+    <t>Frisco</t>
+  </si>
+  <si>
+    <t>225,565</t>
+  </si>
+  <si>
+    <t>200,509</t>
+  </si>
+  <si>
+    <t>3.84%</t>
+  </si>
+  <si>
+    <t>68.13</t>
+  </si>
+  <si>
+    <t>3,311</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>225,476</t>
+  </si>
+  <si>
+    <t>215,006</t>
+  </si>
+  <si>
+    <t>1.57%</t>
+  </si>
+  <si>
+    <t>214.36</t>
+  </si>
+  <si>
+    <t>1,052</t>
+  </si>
+  <si>
+    <t>Modesto</t>
+  </si>
+  <si>
+    <t>223,654</t>
+  </si>
+  <si>
+    <t>218,464</t>
+  </si>
+  <si>
+    <t>0.78%</t>
+  </si>
+  <si>
+    <t>42.98</t>
+  </si>
+  <si>
+    <t>5,204</t>
+  </si>
+  <si>
+    <t>Hialeah</t>
+  </si>
+  <si>
+    <t>222,641</t>
+  </si>
+  <si>
+    <t>223,109</t>
+  </si>
+  <si>
+    <t>-0.07%</t>
+  </si>
+  <si>
+    <t>21.58</t>
+  </si>
+  <si>
+    <t>10,317</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>217,343</t>
+  </si>
+  <si>
+    <t>214,133</t>
+  </si>
+  <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>88.18</t>
+  </si>
+  <si>
+    <t>2,465</t>
+  </si>
+  <si>
+    <t>Port St. Lucie</t>
+  </si>
+  <si>
+    <t>216,926</t>
+  </si>
+  <si>
+    <t>204,851</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>119.20</t>
+  </si>
+  <si>
+    <t>1,820</t>
+  </si>
+  <si>
+    <t>Yonkers</t>
+  </si>
+  <si>
+    <t>216,246</t>
+  </si>
+  <si>
+    <t>211,569</t>
+  </si>
+  <si>
+    <t>0.73%</t>
+  </si>
+  <si>
+    <t>18.01</t>
+  </si>
+  <si>
+    <t>12,006</t>
+  </si>
+  <si>
+    <t>McKinney</t>
+  </si>
+  <si>
+    <t>214,565</t>
+  </si>
+  <si>
+    <t>195,308</t>
+  </si>
+  <si>
+    <t>3.08%</t>
+  </si>
+  <si>
+    <t>66.94</t>
+  </si>
+  <si>
+    <t>3,205</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>214,159</t>
+  </si>
+  <si>
+    <t>206,518</t>
+  </si>
+  <si>
+    <t>1.2%</t>
+  </si>
+  <si>
+    <t>37.36</t>
+  </si>
+  <si>
+    <t>5,732</t>
+  </si>
+  <si>
+    <t>Moreno Valley</t>
+  </si>
+  <si>
+    <t>213,215</t>
+  </si>
+  <si>
+    <t>208,634</t>
+  </si>
+  <si>
+    <t>51.26</t>
+  </si>
+  <si>
+    <t>4,160</t>
+  </si>
+  <si>
+    <t>Fontana</t>
+  </si>
+  <si>
+    <t>212,089</t>
+  </si>
+  <si>
+    <t>208,393</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
+    <t>43.07</t>
+  </si>
+  <si>
+    <t>4,924</t>
+  </si>
+  <si>
+    <t>212,034</t>
+  </si>
+  <si>
+    <t>206,922</t>
+  </si>
+  <si>
+    <t>0.81%</t>
+  </si>
+  <si>
+    <t>216.48</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>211,556</t>
+  </si>
+  <si>
+    <t>211,328</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>35.77</t>
+  </si>
+  <si>
+    <t>5,915</t>
+  </si>
+  <si>
+    <t>Fayetteville</t>
+  </si>
+  <si>
+    <t>210,883</t>
+  </si>
+  <si>
+    <t>208,501</t>
+  </si>
+  <si>
+    <t>147.85</t>
+  </si>
+  <si>
+    <t>1,426</t>
+  </si>
+  <si>
+    <t>Sunrise Manor</t>
+  </si>
+  <si>
+    <t>210,493</t>
+  </si>
+  <si>
+    <t>205,618</t>
+  </si>
+  <si>
+    <t>33.38</t>
+  </si>
+  <si>
+    <t>6,307</t>
+  </si>
+  <si>
+    <t>Cape Coral</t>
+  </si>
+  <si>
+    <t>205,929</t>
+  </si>
+  <si>
+    <t>194,016</t>
+  </si>
+  <si>
+    <t>1.97%</t>
+  </si>
+  <si>
+    <t>105.95</t>
+  </si>
+  <si>
+    <t>1,944</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>205,312</t>
+  </si>
+  <si>
+    <t>202,591</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>119.99</t>
+  </si>
+  <si>
+    <t>1,711</t>
+  </si>
+  <si>
+    <t>Overland Park</t>
+  </si>
+  <si>
+    <t>204,399</t>
+  </si>
+  <si>
+    <t>197,238</t>
+  </si>
+  <si>
+    <t>1.18%</t>
+  </si>
+  <si>
+    <t>75.18</t>
+  </si>
+  <si>
+    <t>2,719</t>
+  </si>
+  <si>
+    <t>Sioux Falls</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>204,106</t>
+  </si>
+  <si>
+    <t>192,517</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>78.23</t>
+  </si>
+  <si>
+    <t>2,609</t>
+  </si>
+  <si>
+    <t>Augusta</t>
+  </si>
+  <si>
+    <t>203,953</t>
+  </si>
+  <si>
+    <t>202,081</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>302.27</t>
+  </si>
+  <si>
+    <t>675</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>203,707</t>
+  </si>
+  <si>
+    <t>199,723</t>
+  </si>
+  <si>
+    <t>110.70</t>
+  </si>
+  <si>
+    <t>1,840</t>
+  </si>
+  <si>
+    <t>Oxnard</t>
+  </si>
+  <si>
+    <t>203,311</t>
+  </si>
+  <si>
+    <t>202,063</t>
+  </si>
+  <si>
+    <t>0.21%</t>
+  </si>
+  <si>
+    <t>26.53</t>
+  </si>
+  <si>
+    <t>7,664</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>203,303</t>
+  </si>
+  <si>
+    <t>200,393</t>
+  </si>
+  <si>
+    <t>101.74</t>
+  </si>
+  <si>
+    <t>1,998</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>202,310</t>
+  </si>
+  <si>
+    <t>196,100</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>2,800</t>
+  </si>
+  <si>
+    <t>Grand Rapids</t>
+  </si>
+  <si>
+    <t>202,181</t>
+  </si>
+  <si>
+    <t>198,917</t>
+  </si>
+  <si>
+    <t>44.76</t>
+  </si>
+  <si>
+    <t>4,517</t>
+  </si>
+  <si>
+    <t>Peoria</t>
+  </si>
+  <si>
+    <t>202,061</t>
+  </si>
+  <si>
+    <t>190,985</t>
+  </si>
+  <si>
+    <t>175.99</t>
+  </si>
+  <si>
+    <t>1,148</t>
+  </si>
+  <si>
+    <t>Huntington Beach</t>
+  </si>
+  <si>
+    <t>201,327</t>
+  </si>
+  <si>
+    <t>198,711</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7,456</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>200,606</t>
+  </si>
+  <si>
+    <t>196,169</t>
+  </si>
+  <si>
+    <t>100.47</t>
+  </si>
+  <si>
+    <t>1,997</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>199,651</t>
+  </si>
+  <si>
+    <t>190,915</t>
+  </si>
+  <si>
+    <t>1.48%</t>
+  </si>
+  <si>
+    <t>48.74</t>
+  </si>
+  <si>
+    <t>4,096</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>199,055</t>
+  </si>
+  <si>
+    <t>200,603</t>
+  </si>
+  <si>
+    <t>-0.26%</t>
+  </si>
+  <si>
+    <t>159.88</t>
+  </si>
+  <si>
+    <t>1,245</t>
+  </si>
+  <si>
+    <t>197,989</t>
+  </si>
+  <si>
+    <t>196,543</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
+    <t>30.47</t>
+  </si>
+  <si>
+    <t>6,498</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>197,283</t>
+  </si>
+  <si>
+    <t>200,733</t>
+  </si>
+  <si>
+    <t>-0.58%</t>
+  </si>
+  <si>
+    <t>146.08</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>194,801</t>
+  </si>
+  <si>
+    <t>190,934</t>
+  </si>
+  <si>
+    <t>0.67%</t>
+  </si>
+  <si>
+    <t>18.41</t>
+  </si>
+  <si>
+    <t>10,584</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>194,301</t>
+  </si>
+  <si>
+    <t>190,740</t>
+  </si>
+  <si>
+    <t>0.61%</t>
+  </si>
+  <si>
+    <t>98.71</t>
+  </si>
+  <si>
+    <t>1,968</t>
+  </si>
+  <si>
+    <t>Brownsville</t>
+  </si>
+  <si>
+    <t>190,254</t>
+  </si>
+  <si>
+    <t>186,738</t>
+  </si>
+  <si>
+    <t>0.62%</t>
+  </si>
+  <si>
+    <t>132.32</t>
+  </si>
+  <si>
+    <t>1,438</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>187,932</t>
+  </si>
+  <si>
+    <t>182,760</t>
+  </si>
+  <si>
+    <t>34.59</t>
+  </si>
+  <si>
+    <t>5,434</t>
+  </si>
+  <si>
+    <t>Newport News</t>
+  </si>
+  <si>
+    <t>187,906</t>
+  </si>
+  <si>
+    <t>186,247</t>
+  </si>
+  <si>
+    <t>0.29%</t>
+  </si>
+  <si>
+    <t>68.99</t>
+  </si>
+  <si>
+    <t>2,724</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>187,877</t>
+  </si>
+  <si>
+    <t>190,469</t>
+  </si>
+  <si>
+    <t>61.93</t>
+  </si>
+  <si>
+    <t>3,034</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>186,568</t>
+  </si>
+  <si>
+    <t>174,721</t>
+  </si>
+  <si>
+    <t>2.16%</t>
+  </si>
+  <si>
+    <t>58.73</t>
+  </si>
+  <si>
+    <t>3,177</t>
+  </si>
+  <si>
+    <t>Tempe</t>
+  </si>
+  <si>
+    <t>186,248</t>
+  </si>
+  <si>
+    <t>180,587</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>39.98</t>
+  </si>
+  <si>
+    <t>4,659</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>185,125</t>
+  </si>
+  <si>
+    <t>181,099</t>
+  </si>
+  <si>
+    <t>142.96</t>
+  </si>
+  <si>
+    <t>1,295</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>184,620</t>
+  </si>
+  <si>
+    <t>187,041</t>
+  </si>
+  <si>
+    <t>-0.43%</t>
+  </si>
+  <si>
+    <t>139.47</t>
+  </si>
+  <si>
+    <t>1,324</t>
+  </si>
+  <si>
+    <t>Shreveport</t>
+  </si>
+  <si>
+    <t>184,077</t>
+  </si>
+  <si>
+    <t>187,593</t>
+  </si>
+  <si>
+    <t>-0.63%</t>
+  </si>
+  <si>
+    <t>107.36</t>
+  </si>
+  <si>
+    <t>1,715</t>
+  </si>
+  <si>
+    <t>Elk Grove</t>
+  </si>
+  <si>
+    <t>183,057</t>
+  </si>
+  <si>
+    <t>176,124</t>
+  </si>
+  <si>
+    <t>42.03</t>
+  </si>
+  <si>
+    <t>4,355</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>182,795</t>
+  </si>
+  <si>
+    <t>176,654</t>
+  </si>
+  <si>
+    <t>1.13%</t>
+  </si>
+  <si>
+    <t>44.14</t>
+  </si>
+  <si>
+    <t>4,141</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>181,805</t>
+  </si>
+  <si>
+    <t>175,535</t>
+  </si>
+  <si>
+    <t>1.16%</t>
+  </si>
+  <si>
+    <t>48.69</t>
+  </si>
+  <si>
+    <t>3,734</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>181,659</t>
+  </si>
+  <si>
+    <t>191,238</t>
+  </si>
+  <si>
+    <t>-1.73%</t>
+  </si>
+  <si>
+    <t>46.73</t>
+  </si>
+  <si>
+    <t>3,887</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>181,220</t>
+  </si>
+  <si>
+    <t>178,127</t>
+  </si>
+  <si>
+    <t>42.52</t>
+  </si>
+  <si>
+    <t>4,262</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>178,667</t>
+  </si>
+  <si>
+    <t>175,265</t>
+  </si>
+  <si>
+    <t>0.64%</t>
+  </si>
+  <si>
+    <t>49.96</t>
+  </si>
+  <si>
+    <t>3,576</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>178,580</t>
+  </si>
+  <si>
+    <t>173,516</t>
+  </si>
+  <si>
+    <t>94.28</t>
+  </si>
+  <si>
+    <t>1,894</t>
+  </si>
+  <si>
+    <t>Fort Collins</t>
+  </si>
+  <si>
+    <t>177,556</t>
+  </si>
+  <si>
+    <t>169,810</t>
+  </si>
+  <si>
+    <t>57.18</t>
+  </si>
+  <si>
+    <t>3,105</t>
+  </si>
+  <si>
+    <t>Rancho Cucamonga</t>
+  </si>
+  <si>
+    <t>177,207</t>
+  </si>
+  <si>
+    <t>174,453</t>
+  </si>
+  <si>
+    <t>40.12</t>
+  </si>
+  <si>
+    <t>4,417</t>
+  </si>
+  <si>
+    <t>Clarksville</t>
+  </si>
+  <si>
+    <t>176,859</t>
+  </si>
+  <si>
+    <t>166,722</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>98.80</t>
+  </si>
+  <si>
+    <t>1,790</t>
+  </si>
+  <si>
+    <t>Oceanside</t>
+  </si>
+  <si>
+    <t>176,162</t>
+  </si>
+  <si>
+    <t>174,068</t>
+  </si>
+  <si>
+    <t>41.26</t>
+  </si>
+  <si>
+    <t>4,270</t>
+  </si>
+  <si>
+    <t>Pembroke Pines</t>
+  </si>
+  <si>
+    <t>176,107</t>
+  </si>
+  <si>
+    <t>171,178</t>
+  </si>
+  <si>
+    <t>32.67</t>
+  </si>
+  <si>
+    <t>5,390</t>
+  </si>
+  <si>
+    <t>175,334</t>
+  </si>
+  <si>
+    <t>180,542</t>
+  </si>
+  <si>
+    <t>-0.98%</t>
+  </si>
+  <si>
+    <t>45.01</t>
+  </si>
+  <si>
+    <t>3,896</t>
+  </si>
+  <si>
+    <t>Palmdale</t>
+  </si>
+  <si>
+    <t>174,460</t>
+  </si>
+  <si>
+    <t>169,450</t>
+  </si>
+  <si>
+    <t>1,645</t>
+  </si>
+  <si>
+    <t>Garden Grove</t>
+  </si>
+  <si>
+    <t>172,270</t>
+  </si>
+  <si>
+    <t>171,949</t>
+  </si>
+  <si>
+    <t>0.06%</t>
+  </si>
+  <si>
+    <t>17.96</t>
+  </si>
+  <si>
+    <t>9,593</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>172,080</t>
+  </si>
+  <si>
+    <t>169,176</t>
+  </si>
+  <si>
+    <t>82.39</t>
+  </si>
+  <si>
+    <t>2,089</t>
+  </si>
+  <si>
+    <t>Hayward</t>
+  </si>
+  <si>
+    <t>168,585</t>
+  </si>
+  <si>
+    <t>162,954</t>
+  </si>
+  <si>
+    <t>45.54</t>
+  </si>
+  <si>
+    <t>3,702</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>167,472</t>
+  </si>
+  <si>
+    <t>163,542</t>
+  </si>
+  <si>
+    <t>23.43</t>
+  </si>
+  <si>
+    <t>7,148</t>
+  </si>
+  <si>
+    <t>Murfreesboro</t>
+  </si>
+  <si>
+    <t>165,972</t>
+  </si>
+  <si>
+    <t>152,769</t>
+  </si>
+  <si>
+    <t>2.72%</t>
+  </si>
+  <si>
+    <t>61.71</t>
+  </si>
+  <si>
+    <t>2,690</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>165,317</t>
+  </si>
+  <si>
+    <t>159,467</t>
+  </si>
+  <si>
+    <t>1.19%</t>
+  </si>
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>11,070</t>
+  </si>
+  <si>
+    <t>Paterson</t>
+  </si>
+  <si>
+    <t>163,791</t>
+  </si>
+  <si>
+    <t>159,732</t>
+  </si>
+  <si>
+    <t>8.41</t>
+  </si>
+  <si>
+    <t>19,469</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>160,701</t>
+  </si>
+  <si>
+    <t>151,854</t>
+  </si>
+  <si>
+    <t>33.46</t>
+  </si>
+  <si>
+    <t>4,803</t>
+  </si>
+  <si>
+    <t>Killeen</t>
+  </si>
+  <si>
+    <t>160,646</t>
+  </si>
+  <si>
+    <t>153,095</t>
+  </si>
+  <si>
+    <t>1.59%</t>
+  </si>
+  <si>
+    <t>54.55</t>
+  </si>
+  <si>
+    <t>2,945</t>
+  </si>
+  <si>
+    <t>Sunnyvale</t>
+  </si>
+  <si>
+    <t>160,521</t>
+  </si>
+  <si>
+    <t>155,805</t>
+  </si>
+  <si>
+    <t>22.03</t>
+  </si>
+  <si>
+    <t>7,286</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>159,884</t>
+  </si>
+  <si>
+    <t>155,984</t>
+  </si>
+  <si>
+    <t>43.05</t>
+  </si>
+  <si>
+    <t>3,714</t>
+  </si>
+  <si>
+    <t>159,853</t>
+  </si>
+  <si>
+    <t>156,607</t>
+  </si>
+  <si>
+    <t>0.68%</t>
+  </si>
+  <si>
+    <t>124.81</t>
+  </si>
+  <si>
+    <t>1,281</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>159,269</t>
+  </si>
+  <si>
+    <t>150,227</t>
+  </si>
+  <si>
+    <t>110.55</t>
+  </si>
+  <si>
+    <t>1,441</t>
+  </si>
+  <si>
+    <t>Bayamon</t>
+  </si>
+  <si>
+    <t>159,179</t>
+  </si>
+  <si>
+    <t>165,368</t>
+  </si>
+  <si>
+    <t>-1.28%</t>
+  </si>
+  <si>
+    <t>26.98</t>
+  </si>
+  <si>
+    <t>5,900</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>158,564</t>
+  </si>
+  <si>
+    <t>157,136</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>3,965</t>
+  </si>
+  <si>
+    <t>156,790</t>
+  </si>
+  <si>
+    <t>155,929</t>
+  </si>
+  <si>
+    <t>31.87</t>
+  </si>
+  <si>
+    <t>4,920</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>156,757</t>
+  </si>
+  <si>
+    <t>153,067</t>
+  </si>
+  <si>
+    <t>27.27</t>
+  </si>
+  <si>
+    <t>5,749</t>
+  </si>
+  <si>
+    <t>Roseville</t>
+  </si>
+  <si>
+    <t>156,467</t>
+  </si>
+  <si>
+    <t>147,773</t>
+  </si>
+  <si>
+    <t>44.08</t>
+  </si>
+  <si>
+    <t>3,550</t>
+  </si>
+  <si>
+    <t>Mesquite</t>
+  </si>
+  <si>
+    <t>153,192</t>
+  </si>
+  <si>
+    <t>150,108</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>3,242</t>
+  </si>
+  <si>
+    <t>Escondido</t>
+  </si>
+  <si>
+    <t>153,177</t>
+  </si>
+  <si>
+    <t>151,038</t>
+  </si>
+  <si>
+    <t>0.47%</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>4,105</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>152,823</t>
+  </si>
+  <si>
+    <t>151,950</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
+    <t>43.59</t>
+  </si>
+  <si>
+    <t>Pomona</t>
+  </si>
+  <si>
+    <t>152,511</t>
+  </si>
+  <si>
+    <t>151,713</t>
+  </si>
+  <si>
+    <t>22.98</t>
+  </si>
+  <si>
+    <t>6,636</t>
+  </si>
+  <si>
+    <t>Naperville</t>
+  </si>
+  <si>
+    <t>151,847</t>
+  </si>
+  <si>
+    <t>149,540</t>
+  </si>
+  <si>
+    <t>38.81</t>
+  </si>
+  <si>
+    <t>3,912</t>
+  </si>
+  <si>
+    <t>Joliet</t>
+  </si>
+  <si>
+    <t>151,241</t>
+  </si>
+  <si>
+    <t>150,362</t>
+  </si>
+  <si>
+    <t>64.15</t>
+  </si>
+  <si>
+    <t>2,358</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>151,227</t>
+  </si>
+  <si>
+    <t>147,780</t>
+  </si>
+  <si>
+    <t>103.91</t>
+  </si>
+  <si>
+    <t>1,455</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>150,837</t>
+  </si>
+  <si>
+    <t>143,148</t>
+  </si>
+  <si>
+    <t>1.73%</t>
+  </si>
+  <si>
+    <t>108.06</t>
+  </si>
+  <si>
+    <t>1,396</t>
+  </si>
+  <si>
+    <t>Bridgeport</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>149,980</t>
+  </si>
+  <si>
+    <t>148,654</t>
+  </si>
+  <si>
+    <t>16.06</t>
+  </si>
+  <si>
+    <t>9,336</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>149,842</t>
+  </si>
+  <si>
+    <t>136,588</t>
+  </si>
+  <si>
+    <t>3.04%</t>
+  </si>
+  <si>
+    <t>33.75</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>149,655</t>
+  </si>
+  <si>
+    <t>148,620</t>
+  </si>
+  <si>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>25.03</t>
+  </si>
+  <si>
+    <t>5,979</t>
+  </si>
+  <si>
+    <t>Thornton</t>
+  </si>
+  <si>
+    <t>148,797</t>
+  </si>
+  <si>
+    <t>141,867</t>
+  </si>
+  <si>
+    <t>35.89</t>
+  </si>
+  <si>
+    <t>4,146</t>
+  </si>
+  <si>
+    <t>Denton</t>
+  </si>
+  <si>
+    <t>147,816</t>
+  </si>
+  <si>
+    <t>139,869</t>
+  </si>
+  <si>
+    <t>96.24</t>
+  </si>
+  <si>
+    <t>1,536</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>147,758</t>
+  </si>
+  <si>
+    <t>153,701</t>
+  </si>
+  <si>
+    <t>-1.32%</t>
+  </si>
+  <si>
+    <t>111.09</t>
+  </si>
+  <si>
+    <t>1,330</t>
+  </si>
+  <si>
+    <t>Torrance</t>
+  </si>
+  <si>
+    <t>147,556</t>
+  </si>
+  <si>
+    <t>147,067</t>
+  </si>
+  <si>
+    <t>0.11%</t>
+  </si>
+  <si>
+    <t>20.52</t>
+  </si>
+  <si>
+    <t>7,190</t>
+  </si>
+  <si>
+    <t>Rockford</t>
+  </si>
+  <si>
+    <t>147,389</t>
+  </si>
+  <si>
+    <t>148,655</t>
+  </si>
+  <si>
+    <t>-0.29%</t>
+  </si>
+  <si>
+    <t>64.38</t>
+  </si>
+  <si>
+    <t>2,289</t>
+  </si>
+  <si>
+    <t>Visalia</t>
+  </si>
+  <si>
+    <t>146,466</t>
+  </si>
+  <si>
+    <t>141,384</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>37.92</t>
+  </si>
+  <si>
+    <t>3,862</t>
+  </si>
+  <si>
+    <t>Fullerton</t>
+  </si>
+  <si>
+    <t>146,155</t>
+  </si>
+  <si>
+    <t>143,617</t>
+  </si>
+  <si>
+    <t>22.43</t>
+  </si>
+  <si>
+    <t>6,516</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>146,104</t>
+  </si>
+  <si>
+    <t>141,085</t>
+  </si>
+  <si>
+    <t>63.07</t>
+  </si>
+  <si>
+    <t>2,317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3603,100 +3585,377 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F818D"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin scaled="1" ang="16200000"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:H205"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
+    <col min="1" max="1" style="4" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3705,7 +3964,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3714,7 +3974,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3723,7 +3984,8 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3732,7 +3994,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3755,7 +4018,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +4042,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3801,7 +4066,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -3824,7 +4090,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -3847,7 +4114,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
@@ -3870,7 +4138,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -3893,7 +4162,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
@@ -3916,7 +4186,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -3939,7 +4210,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
@@ -3962,7 +4234,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
@@ -3985,7 +4258,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
@@ -4008,7 +4282,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>79</v>
       </c>
@@ -4031,7 +4306,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
@@ -4054,7 +4330,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>92</v>
       </c>
@@ -4077,7 +4354,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>99</v>
       </c>
@@ -4100,7 +4378,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>106</v>
       </c>
@@ -4123,7 +4402,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>113</v>
       </c>
@@ -4146,7 +4426,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>119</v>
       </c>
@@ -4169,7 +4450,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>126</v>
       </c>
@@ -4192,7 +4474,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>133</v>
       </c>
@@ -4215,7 +4498,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>120</v>
       </c>
@@ -4238,7 +4522,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>146</v>
       </c>
@@ -4261,7 +4546,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>153</v>
       </c>
@@ -4284,7 +4570,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>160</v>
       </c>
@@ -4307,7 +4594,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>166</v>
       </c>
@@ -4330,7 +4618,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>173</v>
       </c>
@@ -4353,7 +4642,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>180</v>
       </c>
@@ -4376,7 +4666,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>186</v>
       </c>
@@ -4399,7 +4690,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+      <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>193</v>
       </c>
@@ -4422,7 +4714,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+      <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>200</v>
       </c>
@@ -4445,7 +4738,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+      <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>207</v>
       </c>
@@ -4468,7 +4762,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>214</v>
       </c>
@@ -4491,7 +4786,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>220</v>
       </c>
@@ -4514,7 +4810,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>226</v>
       </c>
@@ -4537,7 +4834,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>232</v>
       </c>
@@ -4560,7 +4858,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>238</v>
       </c>
@@ -4583,7 +4882,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>245</v>
       </c>
@@ -4606,7 +4906,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>252</v>
       </c>
@@ -4629,7 +4930,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>259</v>
       </c>
@@ -4652,7 +4954,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>265</v>
       </c>
@@ -4675,7 +4978,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>271</v>
       </c>
@@ -4698,7 +5002,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>277</v>
       </c>
@@ -4721,7 +5026,8 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>284</v>
       </c>
@@ -4744,7 +5050,8 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>290</v>
       </c>
@@ -4767,7 +5074,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>296</v>
       </c>
@@ -4790,7 +5098,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>303</v>
       </c>
@@ -4813,7 +5122,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>309</v>
       </c>
@@ -4836,7 +5146,8 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>315</v>
       </c>
@@ -4859,7 +5170,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>320</v>
       </c>
@@ -4882,7 +5194,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>326</v>
       </c>
@@ -4905,7 +5218,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>333</v>
       </c>
@@ -4928,7 +5242,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>338</v>
       </c>
@@ -4951,7 +5266,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>344</v>
       </c>
@@ -4974,7 +5290,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
         <v>350</v>
       </c>
@@ -4997,7 +5314,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>357</v>
       </c>
@@ -5020,7 +5338,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+      <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>363</v>
       </c>
@@ -5043,7 +5362,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>369</v>
       </c>
@@ -5066,7 +5386,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>375</v>
       </c>
@@ -5089,7 +5410,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>382</v>
       </c>
@@ -5112,7 +5434,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>387</v>
       </c>
@@ -5135,7 +5458,8 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>393</v>
       </c>
@@ -5158,7 +5482,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>399</v>
       </c>
@@ -5181,7 +5506,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>405</v>
       </c>
@@ -5204,7 +5530,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+      <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>411</v>
       </c>
@@ -5227,7 +5554,8 @@
         <v>416</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+      <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>417</v>
       </c>
@@ -5250,7 +5578,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+      <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
         <v>423</v>
       </c>
@@ -5273,7 +5602,8 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+      <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
         <v>428</v>
       </c>
@@ -5296,7 +5626,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>434</v>
       </c>
@@ -5319,7 +5650,8 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>440</v>
       </c>
@@ -5342,7 +5674,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>446</v>
       </c>
@@ -5365,7 +5698,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>453</v>
       </c>
@@ -5388,7 +5722,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
         <v>459</v>
       </c>
@@ -5411,7 +5746,8 @@
         <v>464</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>465</v>
       </c>
@@ -5434,7 +5770,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+      <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>471</v>
       </c>
@@ -5457,7 +5794,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+      <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>477</v>
       </c>
@@ -5480,7 +5818,8 @@
         <v>481</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+      <c r="A81" s="1"/>
       <c r="B81" s="2" t="s">
         <v>482</v>
       </c>
@@ -5503,7 +5842,8 @@
         <v>488</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+      <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>489</v>
       </c>
@@ -5526,7 +5866,8 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+      <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>495</v>
       </c>
@@ -5549,7 +5890,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+      <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
         <v>501</v>
       </c>
@@ -5572,7 +5914,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+      <c r="A85" s="1"/>
       <c r="B85" s="2" t="s">
         <v>507</v>
       </c>
@@ -5595,7 +5938,8 @@
         <v>512</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+      <c r="A86" s="1"/>
       <c r="B86" s="2" t="s">
         <v>513</v>
       </c>
@@ -5618,7 +5962,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+      <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>519</v>
       </c>
@@ -5641,7 +5986,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+      <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>524</v>
       </c>
@@ -5664,7 +6010,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
+      <c r="A89" s="1"/>
       <c r="B89" s="2" t="s">
         <v>530</v>
       </c>
@@ -5687,7 +6034,8 @@
         <v>534</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
+      <c r="A90" s="1"/>
       <c r="B90" s="2" t="s">
         <v>535</v>
       </c>
@@ -5710,7 +6058,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
+      <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>540</v>
       </c>
@@ -5733,7 +6082,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+      <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>545</v>
       </c>
@@ -5756,7 +6106,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+      <c r="A93" s="1"/>
       <c r="B93" s="2" t="s">
         <v>551</v>
       </c>
@@ -5779,7 +6130,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+      <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
         <v>557</v>
       </c>
@@ -5802,7 +6154,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+      <c r="A95" s="1"/>
       <c r="B95" s="2" t="s">
         <v>562</v>
       </c>
@@ -5825,7 +6178,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+      <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
         <v>568</v>
       </c>
@@ -5848,7 +6202,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+      <c r="A97" s="1"/>
       <c r="B97" s="2" t="s">
         <v>574</v>
       </c>
@@ -5871,7 +6226,8 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+      <c r="A98" s="1"/>
       <c r="B98" s="2" t="s">
         <v>580</v>
       </c>
@@ -5894,7 +6250,8 @@
         <v>585</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+      <c r="A99" s="1"/>
       <c r="B99" s="2" t="s">
         <v>586</v>
       </c>
@@ -5917,7 +6274,8 @@
         <v>590</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+      <c r="A100" s="1"/>
       <c r="B100" s="2" t="s">
         <v>591</v>
       </c>
@@ -5940,7 +6298,8 @@
         <v>596</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+      <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
         <v>320</v>
       </c>
@@ -5963,7 +6322,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+      <c r="A102" s="1"/>
       <c r="B102" s="2" t="s">
         <v>601</v>
       </c>
@@ -5986,7 +6346,8 @@
         <v>606</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+      <c r="A103" s="1"/>
       <c r="B103" s="2" t="s">
         <v>607</v>
       </c>
@@ -6009,7 +6370,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+      <c r="A104" s="1"/>
       <c r="B104" s="2" t="s">
         <v>613</v>
       </c>
@@ -6032,7 +6394,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+      <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>619</v>
       </c>
@@ -6055,7 +6418,8 @@
         <v>623</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+      <c r="A106" s="1"/>
       <c r="B106" s="2" t="s">
         <v>624</v>
       </c>
@@ -6078,7 +6442,8 @@
         <v>628</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+      <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>629</v>
       </c>
@@ -6101,7 +6466,8 @@
         <v>633</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+      <c r="A108" s="1"/>
       <c r="B108" s="2" t="s">
         <v>634</v>
       </c>
@@ -6124,7 +6490,8 @@
         <v>638</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+      <c r="A109" s="1"/>
       <c r="B109" s="2" t="s">
         <v>639</v>
       </c>
@@ -6147,7 +6514,8 @@
         <v>644</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+      <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
         <v>645</v>
       </c>
@@ -6170,7 +6538,8 @@
         <v>650</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
+      <c r="A111" s="1"/>
       <c r="B111" s="2" t="s">
         <v>651</v>
       </c>
@@ -6193,7 +6562,8 @@
         <v>656</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
+      <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>657</v>
       </c>
@@ -6216,7 +6586,8 @@
         <v>662</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
+      <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>663</v>
       </c>
@@ -6239,7 +6610,8 @@
         <v>669</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
+      <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>670</v>
       </c>
@@ -6262,7 +6634,8 @@
         <v>675</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
+      <c r="A115" s="1"/>
       <c r="B115" s="2" t="s">
         <v>676</v>
       </c>
@@ -6285,7 +6658,8 @@
         <v>681</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
+      <c r="A116" s="1"/>
       <c r="B116" s="2" t="s">
         <v>682</v>
       </c>
@@ -6308,7 +6682,8 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
+      <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
         <v>689</v>
       </c>
@@ -6331,7 +6706,8 @@
         <v>694</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
+      <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>695</v>
       </c>
@@ -6354,7 +6730,8 @@
         <v>700</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
+      <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>701</v>
       </c>
@@ -6377,7 +6754,8 @@
         <v>706</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
+      <c r="A120" s="1"/>
       <c r="B120" s="2" t="s">
         <v>707</v>
       </c>
@@ -6400,7 +6778,8 @@
         <v>712</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
+      <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
         <v>713</v>
       </c>
@@ -6423,7 +6802,8 @@
         <v>717</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
+      <c r="A122" s="1"/>
       <c r="B122" s="2" t="s">
         <v>718</v>
       </c>
@@ -6446,7 +6826,8 @@
         <v>723</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
+      <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>92</v>
       </c>
@@ -6469,7 +6850,8 @@
         <v>728</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
+      <c r="A124" s="1"/>
       <c r="B124" s="2" t="s">
         <v>729</v>
       </c>
@@ -6492,7 +6874,8 @@
         <v>734</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
+      <c r="A125" s="1"/>
       <c r="B125" s="2" t="s">
         <v>735</v>
       </c>
@@ -6515,7 +6898,8 @@
         <v>739</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
+      <c r="A126" s="1"/>
       <c r="B126" s="2" t="s">
         <v>740</v>
       </c>
@@ -6538,7 +6922,8 @@
         <v>744</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
+      <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>745</v>
       </c>
@@ -6561,7 +6946,8 @@
         <v>750</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
+      <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>751</v>
       </c>
@@ -6584,7 +6970,8 @@
         <v>757</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
+      <c r="A129" s="1"/>
       <c r="B129" s="2" t="s">
         <v>758</v>
       </c>
@@ -6607,7 +6994,8 @@
         <v>763</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
+      <c r="A130" s="1"/>
       <c r="B130" s="2" t="s">
         <v>764</v>
       </c>
@@ -6630,7 +7018,8 @@
         <v>770</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
+      <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>771</v>
       </c>
@@ -6653,7 +7042,8 @@
         <v>776</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
+      <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>777</v>
       </c>
@@ -6676,7 +7066,8 @@
         <v>782</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
+      <c r="A133" s="1"/>
       <c r="B133" s="2" t="s">
         <v>783</v>
       </c>
@@ -6699,7 +7090,8 @@
         <v>788</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
+      <c r="A134" s="1"/>
       <c r="B134" s="2" t="s">
         <v>789</v>
       </c>
@@ -6722,7 +7114,8 @@
         <v>793</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
+      <c r="A135" s="1"/>
       <c r="B135" s="2" t="s">
         <v>794</v>
       </c>
@@ -6745,7 +7138,8 @@
         <v>798</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
+      <c r="A136" s="1"/>
       <c r="B136" s="2" t="s">
         <v>799</v>
       </c>
@@ -6768,7 +7162,8 @@
         <v>803</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
+      <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>804</v>
       </c>
@@ -6791,7 +7186,8 @@
         <v>808</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
+      <c r="A138" s="1"/>
       <c r="B138" s="2" t="s">
         <v>809</v>
       </c>
@@ -6814,7 +7210,8 @@
         <v>813</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
+      <c r="A139" s="1"/>
       <c r="B139" s="2" t="s">
         <v>814</v>
       </c>
@@ -6837,7 +7234,8 @@
         <v>818</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
+      <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>819</v>
       </c>
@@ -6860,7 +7258,8 @@
         <v>824</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
+      <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>825</v>
       </c>
@@ -6883,7 +7282,8 @@
         <v>830</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
+      <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>580</v>
       </c>
@@ -6906,7 +7306,8 @@
         <v>835</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
+      <c r="A143" s="1"/>
       <c r="B143" s="2" t="s">
         <v>836</v>
       </c>
@@ -6929,7 +7330,8 @@
         <v>596</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
+      <c r="A144" s="1"/>
       <c r="B144" s="2" t="s">
         <v>841</v>
       </c>
@@ -6952,7 +7354,8 @@
         <v>847</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
+      <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>848</v>
       </c>
@@ -6975,7 +7378,8 @@
         <v>853</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
+      <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>854</v>
       </c>
@@ -6998,7 +7402,8 @@
         <v>859</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
+      <c r="A147" s="1"/>
       <c r="B147" s="2" t="s">
         <v>860</v>
       </c>
@@ -7021,7 +7426,8 @@
         <v>864</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
+      <c r="A148" s="1"/>
       <c r="B148" s="2" t="s">
         <v>865</v>
       </c>
@@ -7044,7 +7450,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
+      <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>871</v>
       </c>
@@ -7067,7 +7474,8 @@
         <v>875</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
+      <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>876</v>
       </c>
@@ -7090,7 +7498,8 @@
         <v>881</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
+      <c r="A151" s="1"/>
       <c r="B151" s="2" t="s">
         <v>882</v>
       </c>
@@ -7113,7 +7522,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
+      <c r="A152" s="1"/>
       <c r="B152" s="2" t="s">
         <v>888</v>
       </c>
@@ -7136,7 +7546,8 @@
         <v>892</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
+      <c r="A153" s="1"/>
       <c r="B153" s="2" t="s">
         <v>893</v>
       </c>
@@ -7159,7 +7570,8 @@
         <v>898</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
+      <c r="A154" s="1"/>
       <c r="B154" s="2" t="s">
         <v>899</v>
       </c>
@@ -7182,7 +7594,8 @@
         <v>904</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
+      <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>905</v>
       </c>
@@ -7205,7 +7618,8 @@
         <v>909</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
+      <c r="A156" s="1"/>
       <c r="B156" s="2" t="s">
         <v>910</v>
       </c>
@@ -7228,7 +7642,8 @@
         <v>915</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
+      <c r="A157" s="1"/>
       <c r="B157" s="2" t="s">
         <v>916</v>
       </c>
@@ -7251,7 +7666,8 @@
         <v>921</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
+      <c r="A158" s="1"/>
       <c r="B158" s="2" t="s">
         <v>922</v>
       </c>
@@ -7274,7 +7690,8 @@
         <v>927</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
+      <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>928</v>
       </c>
@@ -7297,7 +7714,8 @@
         <v>932</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
+      <c r="A160" s="1"/>
       <c r="B160" s="2" t="s">
         <v>933</v>
       </c>
@@ -7320,7 +7738,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
+      <c r="A161" s="1"/>
       <c r="B161" s="2" t="s">
         <v>939</v>
       </c>
@@ -7343,7 +7762,8 @@
         <v>943</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
+      <c r="A162" s="1"/>
       <c r="B162" s="2" t="s">
         <v>944</v>
       </c>
@@ -7366,7 +7786,8 @@
         <v>948</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
+      <c r="A163" s="1"/>
       <c r="B163" s="2" t="s">
         <v>949</v>
       </c>
@@ -7389,7 +7810,8 @@
         <v>953</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
+      <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>954</v>
       </c>
@@ -7412,7 +7834,8 @@
         <v>959</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
+      <c r="A165" s="1"/>
       <c r="B165" s="2" t="s">
         <v>960</v>
       </c>
@@ -7435,7 +7858,8 @@
         <v>964</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
+      <c r="A166" s="1"/>
       <c r="B166" s="2" t="s">
         <v>965</v>
       </c>
@@ -7458,7 +7882,8 @@
         <v>969</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
+      <c r="A167" s="1"/>
       <c r="B167" s="2" t="s">
         <v>315</v>
       </c>
@@ -7481,7 +7906,8 @@
         <v>974</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
+      <c r="A168" s="1"/>
       <c r="B168" s="2" t="s">
         <v>975</v>
       </c>
@@ -7504,7 +7930,8 @@
         <v>978</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
+      <c r="A169" s="1"/>
       <c r="B169" s="2" t="s">
         <v>979</v>
       </c>
@@ -7527,7 +7954,8 @@
         <v>984</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
+      <c r="A170" s="1"/>
       <c r="B170" s="2" t="s">
         <v>985</v>
       </c>
@@ -7550,7 +7978,8 @@
         <v>989</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
+      <c r="A171" s="1"/>
       <c r="B171" s="2" t="s">
         <v>990</v>
       </c>
@@ -7573,7 +8002,8 @@
         <v>994</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
+      <c r="A172" s="1"/>
       <c r="B172" s="2" t="s">
         <v>995</v>
       </c>
@@ -7596,7 +8026,8 @@
         <v>999</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
+      <c r="A173" s="1"/>
       <c r="B173" s="2" t="s">
         <v>1000</v>
       </c>
@@ -7619,7 +8050,8 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
+      <c r="A174" s="1"/>
       <c r="B174" s="2" t="s">
         <v>1006</v>
       </c>
@@ -7642,7 +8074,8 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18">
+      <c r="A175" s="1"/>
       <c r="B175" s="2" t="s">
         <v>1012</v>
       </c>
@@ -7665,7 +8098,8 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
+      <c r="A176" s="1"/>
       <c r="B176" s="2" t="s">
         <v>1017</v>
       </c>
@@ -7688,7 +8122,8 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
+      <c r="A177" s="1"/>
       <c r="B177" s="2" t="s">
         <v>1022</v>
       </c>
@@ -7711,7 +8146,8 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
+      <c r="A178" s="1"/>
       <c r="B178" s="2" t="s">
         <v>1028</v>
       </c>
@@ -7734,7 +8170,8 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
+      <c r="A179" s="1"/>
       <c r="B179" s="2" t="s">
         <v>1033</v>
       </c>
@@ -7757,7 +8194,8 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
+      <c r="A180" s="1"/>
       <c r="B180" s="2" t="s">
         <v>238</v>
       </c>
@@ -7780,7 +8218,8 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
+      <c r="A181" s="1"/>
       <c r="B181" s="2" t="s">
         <v>1043</v>
       </c>
@@ -7803,7 +8242,8 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
+      <c r="A182" s="1"/>
       <c r="B182" s="2" t="s">
         <v>1049</v>
       </c>
@@ -7826,7 +8266,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
+      <c r="A183" s="1"/>
       <c r="B183" s="2" t="s">
         <v>1055</v>
       </c>
@@ -7849,7 +8290,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
+      <c r="A184" s="1"/>
       <c r="B184" s="2" t="s">
         <v>985</v>
       </c>
@@ -7872,7 +8314,8 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
+      <c r="A185" s="1"/>
       <c r="B185" s="2" t="s">
         <v>1064</v>
       </c>
@@ -7895,7 +8338,8 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
+      <c r="A186" s="1"/>
       <c r="B186" s="2" t="s">
         <v>1069</v>
       </c>
@@ -7918,7 +8362,8 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
+      <c r="A187" s="1"/>
       <c r="B187" s="2" t="s">
         <v>1074</v>
       </c>
@@ -7941,7 +8386,8 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
+      <c r="A188" s="1"/>
       <c r="B188" s="2" t="s">
         <v>1079</v>
       </c>
@@ -7964,7 +8410,8 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
+      <c r="A189" s="1"/>
       <c r="B189" s="2" t="s">
         <v>1085</v>
       </c>
@@ -7987,7 +8434,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
+      <c r="A190" s="1"/>
       <c r="B190" s="2" t="s">
         <v>1090</v>
       </c>
@@ -8010,7 +8458,8 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
+      <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>1095</v>
       </c>
@@ -8033,7 +8482,8 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
+      <c r="A192" s="1"/>
       <c r="B192" s="2" t="s">
         <v>1100</v>
       </c>
@@ -8056,7 +8506,8 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
+      <c r="A193" s="1"/>
       <c r="B193" s="2" t="s">
         <v>1105</v>
       </c>
@@ -8079,7 +8530,8 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
+      <c r="A194" s="1"/>
       <c r="B194" s="2" t="s">
         <v>1110</v>
       </c>
@@ -8102,7 +8554,8 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
+      <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>1116</v>
       </c>
@@ -8125,7 +8578,8 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
+      <c r="A196" s="1"/>
       <c r="B196" s="2" t="s">
         <v>1122</v>
       </c>
@@ -8148,7 +8602,8 @@
         <v>618</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
+      <c r="A197" s="1"/>
       <c r="B197" s="2" t="s">
         <v>1127</v>
       </c>
@@ -8171,7 +8626,8 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
+      <c r="A198" s="1"/>
       <c r="B198" s="2" t="s">
         <v>1133</v>
       </c>
@@ -8194,7 +8650,8 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
+      <c r="A199" s="1"/>
       <c r="B199" s="2" t="s">
         <v>1138</v>
       </c>
@@ -8217,7 +8674,8 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
+      <c r="A200" s="1"/>
       <c r="B200" s="2" t="s">
         <v>1143</v>
       </c>
@@ -8240,7 +8698,8 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
+      <c r="A201" s="1"/>
       <c r="B201" s="2" t="s">
         <v>1150</v>
       </c>
@@ -8263,7 +8722,8 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
+      <c r="A202" s="1"/>
       <c r="B202" s="2" t="s">
         <v>1156</v>
       </c>
@@ -8286,7 +8746,8 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
+      <c r="A203" s="1"/>
       <c r="B203" s="2" t="s">
         <v>1162</v>
       </c>
@@ -8309,7 +8770,8 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
+      <c r="A204" s="1"/>
       <c r="B204" s="2" t="s">
         <v>1168</v>
       </c>
@@ -8332,7 +8794,8 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
+      <c r="A205" s="1"/>
       <c r="B205" s="2" t="s">
         <v>1173</v>
       </c>
@@ -8356,12 +8819,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>